--- a/database/stopwords.xlsx
+++ b/database/stopwords.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gutof\Desktop\TCC\preProcessamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Danilo S. Tuzita\OneDrive\OneDrive\FEI\TCC\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CC6934-38BA-4A6F-AD76-46EEDE503355}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{26CC6934-38BA-4A6F-AD76-46EEDE503355}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{49AECDED-F320-4549-B958-E5EFA7DFCA22}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{91006EB8-6054-4686-820E-9682C899B074}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>the</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>New Word</t>
+  </si>
+  <si>
+    <t>i'm</t>
+  </si>
+  <si>
+    <t>i am</t>
   </si>
 </sst>
 </file>
@@ -409,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94B3B9F-84C6-4474-BB14-01F8A5980551}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,6 +463,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
